--- a/templates/export/tickets_unified.xlsx
+++ b/templates/export/tickets_unified.xlsx
@@ -13,10 +13,10 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1696955761" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1696955761" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1696955761" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1696955761"/>
+      <pm:revision xmlns:pm="smNativeData" day="1699631662" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1699631662" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1699631662" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1699631662"/>
     </ext>
   </extLst>
 </workbook>
@@ -40,7 +40,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1696955761">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699631662">
                   <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
                   <pm:cs face="Calibri"/>
                   <pm:ea face="Calibri"/>
@@ -64,7 +64,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1696955761">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699631662">
                   <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
                   <pm:cs face="Calibri"/>
                   <pm:ea face="Calibri"/>
@@ -75,11 +75,25 @@
           <t>jx:each(items="tickets", var="device", lastCell="I9")</t>
         </r>
         <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <charset val="0"/>
+            <family val="2"/>
+            <sz val="11"/>
+            <b val="0"/>
+            <i val="0"/>
+            <extLst>
+              <ext uri="smNativeData">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699631662">
+                  <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+                  <pm:cs/>
+                  <pm:ea/>
+                </pm:charSpec>
+              </ext>
+            </extLst>
+          </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <t>jx:each(items="device.objects", var="ticket", lastCell="I9")</t>
+jx:each(items="device.objects", var="ticket", lastCell="I9")</t>
         </r>
       </text>
     </comment>
@@ -88,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Tipo de Reporte:</t>
   </si>
@@ -123,16 +137,19 @@
     <t>Geocerca</t>
   </si>
   <si>
-    <t>Hora checada</t>
-  </si>
-  <si>
-    <t>Hora salida</t>
+    <t>Hora programada</t>
+  </si>
+  <si>
+    <t>Hora realizada</t>
   </si>
   <si>
     <t>Adelantados o quemados</t>
   </si>
   <si>
     <t>Castigo</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
   </si>
   <si>
     <r>
@@ -149,7 +166,7 @@
         <color rgb="FF444444"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1696955761" fgClr="444444">
+            <pm:charSpec xmlns:pm="smNativeData" id="1699631662" fgClr="444444">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs sz="200"/>
               <pm:ea sz="200"/>
@@ -170,7 +187,7 @@
         <color rgb="FF333333"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1696955761" fgClr="333333">
+            <pm:charSpec xmlns:pm="smNativeData" id="1699631662" fgClr="333333">
               <pm:latin face="Calibri" sz="200" weight="normal" i="0"/>
               <pm:cs sz="200"/>
               <pm:ea sz="200"/>
@@ -200,17 +217,14 @@
     <t>${ticket.difference.toString()}</t>
   </si>
   <si>
-    <t>${ticket.punishment.toString()}</t>
-  </si>
-  <si>
-    <t>${ticket.salida.toString()}</t>
+    <t>${ticket.punishment}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
@@ -223,6 +237,7 @@
     <numFmt numFmtId="165" formatCode="[h]&quot; h &quot;m&quot; min &quot;s&quot; s&quot;"/>
     <numFmt numFmtId="166" formatCode="[h]&quot; h &quot;m&quot; min&quot;"/>
     <numFmt numFmtId="49" formatCode="@"/>
+    <numFmt numFmtId="4" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -232,7 +247,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696955761" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699631662" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -247,7 +262,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696955761" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699631662" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -263,7 +278,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696955761" fgClr="444444" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699631662" fgClr="444444" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -278,7 +293,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696955761" fgClr="444444" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699631662" fgClr="444444" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -294,7 +309,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696955761" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699631662" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -309,7 +324,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696955761" fgClr="444444" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699631662" fgClr="444444" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -325,7 +340,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696955761" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699631662" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -340,7 +355,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696955761" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699631662" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -355,7 +370,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696955761" fgClr="333333" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699631662" fgClr="333333" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -370,7 +385,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696955761" fgClr="0070C0" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699631662" fgClr="0070C0" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -385,7 +400,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1696955761" fgClr="444444" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699631662" fgClr="444444" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -410,7 +425,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1696955761" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00969696"/>
+            <pm:shade xmlns:pm="smNativeData" id="1699631662" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00969696"/>
           </ext>
         </extLst>
       </patternFill>
@@ -421,7 +436,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1696955761" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00969696"/>
+            <pm:shade xmlns:pm="smNativeData" id="1699631662" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00969696"/>
           </ext>
         </extLst>
       </patternFill>
@@ -438,7 +453,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1696955761" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1699631662" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -460,7 +475,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1696955761"/>
+          <pm:border xmlns:pm="smNativeData" id="1699631662"/>
         </ext>
       </extLst>
     </border>
@@ -479,7 +494,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1696955761">
+          <pm:border xmlns:pm="smNativeData" id="1699631662">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -500,7 +515,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1696955761">
+          <pm:border xmlns:pm="smNativeData" id="1699631662">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -524,7 +539,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1696955761">
+          <pm:border xmlns:pm="smNativeData" id="1699631662">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -547,7 +562,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1696955761">
+          <pm:border xmlns:pm="smNativeData" id="1699631662">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -571,7 +586,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1696955761">
+          <pm:border xmlns:pm="smNativeData" id="1699631662">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -594,7 +609,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1696955761"/>
+          <pm:border xmlns:pm="smNativeData" id="1699631662"/>
         </ext>
       </extLst>
     </border>
@@ -602,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -617,7 +632,7 @@
       <alignment horizontal="left" vertical="center" indent="5"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:cellMargin xmlns:pm="smNativeData" id="1696955761" l="960" r="0" t="0" b="0" textRotation="0"/>
+          <pm:cellMargin xmlns:pm="smNativeData" id="1699631662" l="960" r="0" t="0" b="0" textRotation="0"/>
         </ext>
       </extLst>
     </xf>
@@ -628,7 +643,7 @@
       <alignment horizontal="left" vertical="center" indent="5"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:cellMargin xmlns:pm="smNativeData" id="1696955761" l="960" r="0" t="0" b="0" textRotation="0"/>
+          <pm:cellMargin xmlns:pm="smNativeData" id="1699631662" l="960" r="0" t="0" b="0" textRotation="0"/>
         </ext>
       </extLst>
     </xf>
@@ -663,6 +678,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -670,10 +688,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1696955761" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1699631662" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1696955761" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1699631662" count="4">
         <pm:color name="Color 24" rgb="444444"/>
         <pm:color name="Color 25" rgb="0070C0"/>
         <pm:color name="Color 26" rgb="5B9BD5"/>
@@ -705,7 +723,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_cX0lZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAA7zYAAC47AAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_LlJOZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAA7zYAAC47AAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -753,7 +771,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_cX0lZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAA7zYAAC47AAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_LlJOZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAA7zYAAC47AAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -801,7 +819,7 @@
         <xdr:cNvSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_cX0lZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAA7zYAAC47AAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_LlJOZRMAAAAlAAAAZAAAAIwAAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAEAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAAC8AAAAGAAAAtwEJAAAAAAAAAAAA7zYAAC47AAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvSpPr>
@@ -1092,7 +1110,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -1112,7 +1130,6 @@
     <row r="1" spans="1:7">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -1125,7 +1142,6 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1134,7 +1150,6 @@
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="5"/>
-      <c r="C3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1147,7 +1162,6 @@
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1160,7 +1174,6 @@
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1173,7 +1186,6 @@
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1214,37 +1226,35 @@
         <v>14</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="17" customFormat="1" ht="18.75" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="H9" s="18" t="s">
         <v>23</v>
       </c>
+      <c r="I9" s="16"/>
     </row>
     <row r="21" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="22" spans="1:1" ht="15.75" customHeight="1"/>
@@ -2230,7 +2240,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1696955761" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1699631662" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2239,10 +2249,10 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1696955761" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1696955761" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1696955761" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1696955761" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1699631662" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1699631662" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1699631662" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1699631662" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
@@ -2250,7 +2260,7 @@
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1696955761" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1699631662" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
